--- a/Misc/2019_20-Even-18CS42-DAA-Lecture-Plan.xlsx
+++ b/Misc/2019_20-Even-18CS42-DAA-Lecture-Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramrustagi/OneDrive - Advanced Computing and Communications Society/KSIT-Courses/2020-Even-18CS43-DAA/Misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramrustagi/Projects/github/2019_20-Even-18CS42-DAA/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF61DD3-453F-014B-8D2C-A70501DE25ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E498AE6D-E6AA-E842-865B-85C7A7ADB688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="460" windowWidth="17140" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8460" yWindow="460" windowWidth="17140" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COs" sheetId="2" r:id="rId1"/>
@@ -512,7 +512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -530,17 +530,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -579,127 +568,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -998,7 +866,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1009,56 +877,17 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1066,47 +895,53 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="295">
@@ -1471,7 +1306,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1532,7 +1367,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1589,7 +1424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1641,7 +1476,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1853,7 +1688,7 @@
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -1863,7 +1698,7 @@
       <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="10" t="s">
         <v>86</v>
       </c>
     </row>
@@ -1874,7 +1709,7 @@
       <c r="B2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="22">
+      <c r="C2" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1885,7 +1720,7 @@
       <c r="B3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1896,7 +1731,7 @@
       <c r="B4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="22">
+      <c r="C4" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1907,7 +1742,7 @@
       <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1918,7 +1753,7 @@
       <c r="B6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1929,7 +1764,7 @@
       <c r="B7" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="10">
         <v>3</v>
       </c>
     </row>
@@ -1950,819 +1785,935 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A2:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" style="15" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="6.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="6.1640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="76.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" style="8" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="26"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="F3" s="30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B4" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C4" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="D4" s="14"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="31"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>3</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="19"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="21"/>
-      <c r="E15" s="19"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="D5" s="14"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="14"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
         <v>4</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B7" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C7" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="F7" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+      <c r="A8" s="21">
         <v>5</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C8" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="D8" s="14"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="30"/>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+      <c r="A9" s="21">
         <v>6</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B9" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C9" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="19"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="19"/>
-    </row>
-    <row r="20" spans="1:5" ht="34" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="D9" s="14"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="31"/>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
         <v>7</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C11" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="F11" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
         <v>8</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C12" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
+      <c r="D12" s="14"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" spans="1:6" ht="35" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
         <v>9</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B13" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C13" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="18"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="19"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
+      <c r="D13" s="17"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="31"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
         <v>10</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B15" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C15" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D15" s="17"/>
+      <c r="E15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="F15" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
         <v>11</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B16" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
+      <c r="D16" s="14"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
         <v>12</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B17" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C17" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
+      <c r="D17" s="14"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
         <v>13</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B19" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C19" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D19" s="17"/>
+      <c r="E19" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="F19" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="21">
         <v>14</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="20"/>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="D20" s="17"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="21">
         <v>15</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B21" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C21" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="20"/>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="19"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="D21" s="17"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
         <v>16</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C23" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D23" s="17"/>
+      <c r="E23" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="F23" s="30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="21">
         <v>17</v>
       </c>
-      <c r="B33" s="30" t="s">
+      <c r="B24" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C24" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="D24" s="18"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="21">
         <v>18</v>
       </c>
-      <c r="B34" s="30" t="s">
+      <c r="B25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C25" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="D25" s="17"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="31"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="31"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="21">
         <v>19</v>
       </c>
-      <c r="B36" s="30" t="s">
+      <c r="B27" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C27" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D27" s="17"/>
+      <c r="E27" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="F27" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="21">
         <v>20</v>
       </c>
-      <c r="B37" s="30" t="s">
+      <c r="B28" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C28" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="D28" s="17"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="31"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="21">
         <v>21</v>
       </c>
-      <c r="B38" s="30" t="s">
+      <c r="B29" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C29" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="D29" s="17"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="31"/>
+    </row>
+    <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="31"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="21">
         <v>22</v>
       </c>
-      <c r="B40" s="30" t="s">
+      <c r="B31" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C31" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D31" s="17"/>
+      <c r="E31" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="F31" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+    <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21">
         <v>23</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C32" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D41" s="21"/>
-      <c r="E41" s="19"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="D32" s="17"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" ht="35" x14ac:dyDescent="0.25">
+      <c r="A33" s="21">
         <v>24</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B33" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C33" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D42" s="21"/>
-      <c r="E42" s="19"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="19"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="D33" s="17"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" ht="35" x14ac:dyDescent="0.25">
+      <c r="A35" s="21">
         <v>25</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B35" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C35" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D35" s="17"/>
+      <c r="E35" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="F35" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
         <v>26</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B36" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C36" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="19"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="D36" s="17"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="21">
         <v>27</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B37" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C37" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="19"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="19"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="D37" s="17"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="31"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="31"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="21">
         <v>28</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B39" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C39" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D39" s="17"/>
+      <c r="E39" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E48" s="18" t="s">
+      <c r="F39" s="30" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="9">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="21">
         <v>29</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B40" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C40" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="21"/>
-      <c r="E49" s="19"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="9">
+      <c r="D40" s="17"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="31"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="21">
         <v>30</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B41" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C41" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="19"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="19"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="9">
+      <c r="D41" s="17"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="31"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="31"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="21">
         <v>31</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B43" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C43" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D43" s="17"/>
+      <c r="E43" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="E52" s="18" t="s">
+      <c r="F43" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="9">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="21">
         <v>32</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B44" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="14" t="s">
+      <c r="C44" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D53" s="21"/>
-      <c r="E53" s="19"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="9">
+      <c r="D44" s="17"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="31"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="21">
         <v>33</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B45" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C45" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="D54" s="21"/>
-      <c r="E54" s="19"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="19"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="9">
+      <c r="D45" s="17"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="31"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="31"/>
+    </row>
+    <row r="47" spans="1:6" ht="35" x14ac:dyDescent="0.25">
+      <c r="A47" s="21">
         <v>34</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B47" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C47" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D47" s="17"/>
+      <c r="E47" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="F47" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="9">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="21">
         <v>35</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B48" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C48" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="D57" s="21"/>
-      <c r="E57" s="19"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="9">
+      <c r="D48" s="17"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="31"/>
+    </row>
+    <row r="49" spans="1:6" ht="35" x14ac:dyDescent="0.25">
+      <c r="A49" s="21">
         <v>36</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B49" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C49" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="21"/>
-      <c r="E58" s="19"/>
-    </row>
-    <row r="59" spans="1:5" ht="35" x14ac:dyDescent="0.25">
-      <c r="A59" s="9">
+      <c r="D49" s="17"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="31"/>
+    </row>
+    <row r="50" spans="1:6" ht="52" x14ac:dyDescent="0.25">
+      <c r="A50" s="21">
         <v>37</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B50" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C50" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="21"/>
-      <c r="E59" s="19"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="23" t="s">
+      <c r="D50" s="17"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="31"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="16"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41" t="s">
+      <c r="D52" s="14"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B53" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C62" s="33" t="s">
+      <c r="C53" s="23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="41" t="s">
+      <c r="D53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B54" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C54" s="23" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="41" t="s">
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B55" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C55" s="23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="41" t="s">
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B56" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C56" s="23" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="38" t="s">
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B57" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="35" t="s">
+      <c r="C57" s="23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="41" t="s">
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B58" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C67" s="35" t="s">
+      <c r="C58" s="23" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="41" t="s">
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B68" s="36" t="s">
+      <c r="B59" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="35" t="s">
+      <c r="C59" s="23" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="42" t="s">
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="27" t="s">
         <v>105</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B60" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C69" s="35" t="s">
+      <c r="C60" s="23" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="38" t="s">
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B61" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="C61" s="23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="41" t="s">
+      <c r="D61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B71" s="36" t="s">
+      <c r="B62" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="C62" s="23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="41" t="s">
+      <c r="D62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B63" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="35" t="s">
+      <c r="C63" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="41" t="s">
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B73" s="39" t="s">
+      <c r="B64" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C64" s="23" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
         <v>110</v>
       </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D74" s="14"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D75" s="14"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D76" s="14"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D77" s="14"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D78" s="14"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D80" s="14"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D81" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D56:D59"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="D16:D19"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="D48:D51"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="E56:E59"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="E48:E51"/>
-    <mergeCell ref="E52:E55"/>
+    <mergeCell ref="F47:F50"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="F15:F18"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="F31:F34"/>
+    <mergeCell ref="F35:F38"/>
+    <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E46"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="29" max="16383" man="1"/>
+  </rowBreaks>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
@@ -2781,11 +2732,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.83203125" style="16"/>
+    <col min="2" max="2" width="10.83203125" style="9"/>
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <sortState ref="B3:D122">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D122">
     <sortCondition ref="D3:D122"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Misc/2019_20-Even-18CS42-DAA-Lecture-Plan.xlsx
+++ b/Misc/2019_20-Even-18CS42-DAA-Lecture-Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramrustagi/Projects/github/2019_20-Even-18CS42-DAA/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E498AE6D-E6AA-E842-865B-85C7A7ADB688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762EA614-3633-7C42-B865-B95740BA2674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8460" yWindow="460" windowWidth="17140" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="460" windowWidth="20700" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COs" sheetId="2" r:id="rId1"/>
@@ -866,7 +866,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -889,23 +889,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -931,16 +917,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1306,7 +1309,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1367,7 +1370,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1785,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F81"/>
+  <dimension ref="A2:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1796,893 +1799,918 @@
     <col min="1" max="1" width="6.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="6.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="54.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="76.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="11" style="32" customWidth="1"/>
     <col min="5" max="5" width="6.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="26"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="28" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="22" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="H3" s="2">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="31"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="D4" s="28"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
         <v>3</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="14"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="31"/>
-    </row>
-    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
+      <c r="D5" s="28"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" s="28"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="28" t="s">
+      <c r="D7" s="28"/>
+      <c r="E7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="22" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.25">
-      <c r="A9" s="21">
+      <c r="D8" s="28"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="31"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="28"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="31"/>
-    </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
+      <c r="D10" s="29"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="23"/>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
         <v>7</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="28" t="s">
+      <c r="D11" s="28"/>
+      <c r="E11" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
+    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
         <v>8</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="30"/>
-    </row>
-    <row r="13" spans="1:6" ht="35" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="D12" s="28"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="35" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
         <v>9</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="17"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="30"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="30"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="31"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
+      <c r="D14" s="29"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
         <v>10</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="15">
         <v>11</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="30"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="15">
         <v>12</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="30"/>
+      <c r="D17" s="28">
+        <f>12/38</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="31"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
+      <c r="A19" s="15">
         <v>13</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="30">
+        <f>13/38</f>
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="22" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21">
+      <c r="A20" s="15">
         <v>14</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21">
+      <c r="A21" s="15">
         <v>15</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="30"/>
+      <c r="D21" s="30">
+        <f>15/38</f>
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="E21" s="24"/>
+      <c r="F21" s="22"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="31"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="23"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
+      <c r="A23" s="15">
         <v>16</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" s="28" t="s">
+      <c r="D23" s="30"/>
+      <c r="E23" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="30" t="s">
+      <c r="F23" s="22" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="21">
+      <c r="A24" s="15">
         <v>17</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="21">
+      <c r="A25" s="15">
         <v>18</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="31"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="23"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="21">
+      <c r="A27" s="15">
         <v>19</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="28" t="s">
+      <c r="D27" s="30"/>
+      <c r="E27" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="22" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="21">
+      <c r="A28" s="15">
         <v>20</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="31"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="21">
+      <c r="A29" s="15">
         <v>21</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="31"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="31"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="21">
+      <c r="A31" s="15">
         <v>22</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="28" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="22" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21">
+      <c r="A32" s="15">
         <v>23</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="31"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="23"/>
     </row>
     <row r="33" spans="1:6" ht="35" x14ac:dyDescent="0.25">
-      <c r="A33" s="21">
+      <c r="A33" s="15">
         <v>24</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="31"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="23"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="31"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="23"/>
     </row>
     <row r="35" spans="1:6" ht="35" x14ac:dyDescent="0.25">
-      <c r="A35" s="21">
+      <c r="A35" s="15">
         <v>25</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="28" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="30" t="s">
+      <c r="F35" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="15">
         <v>26</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="31"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="23"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="21">
+      <c r="A37" s="15">
         <v>27</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="31"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="23"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="31"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="23"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="21">
+      <c r="A39" s="15">
         <v>28</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="28" t="s">
+      <c r="D39" s="30"/>
+      <c r="E39" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="30" t="s">
+      <c r="F39" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="21">
+      <c r="A40" s="15">
         <v>29</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="31"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="23"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="21">
+      <c r="A41" s="15">
         <v>30</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="31"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="23"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="31"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="23"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="21">
+      <c r="A43" s="15">
         <v>31</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="28" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="30" t="s">
+      <c r="F43" s="22" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="21">
+      <c r="A44" s="15">
         <v>32</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="31"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="21">
+      <c r="A45" s="15">
         <v>33</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="23"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="31"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:6" ht="35" x14ac:dyDescent="0.25">
-      <c r="A47" s="21">
+      <c r="A47" s="15">
         <v>34</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="28" t="s">
+      <c r="D47" s="30"/>
+      <c r="E47" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="30" t="s">
+      <c r="F47" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="21">
+      <c r="A48" s="15">
         <v>35</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="31"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="23"/>
     </row>
     <row r="49" spans="1:6" ht="35" x14ac:dyDescent="0.25">
-      <c r="A49" s="21">
+      <c r="A49" s="15">
         <v>36</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="29"/>
-      <c r="F49" s="31"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="23"/>
     </row>
     <row r="50" spans="1:6" ht="52" x14ac:dyDescent="0.25">
-      <c r="A50" s="21">
+      <c r="A50" s="15">
         <v>37</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="31"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="23"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="16"/>
+      <c r="D51" s="29"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="14"/>
+      <c r="D52" s="28"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="28"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="23" t="s">
+      <c r="C54" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="14"/>
+      <c r="D54" s="28"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C55" s="23" t="s">
+      <c r="C55" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="14"/>
+      <c r="D55" s="28"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="23" t="s">
+      <c r="C56" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="14"/>
+      <c r="D56" s="28"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="28"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="25" t="s">
+      <c r="B58" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C58" s="23" t="s">
+      <c r="C58" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="14"/>
+      <c r="D58" s="28"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C59" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="14"/>
+      <c r="D59" s="28"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="14"/>
+      <c r="D60" s="28"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="14"/>
+      <c r="D61" s="28"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="14"/>
+      <c r="D62" s="28"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="14"/>
+      <c r="D63" s="28"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="23" t="s">
+      <c r="C64" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="14"/>
+      <c r="D64" s="28"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="23"/>
-      <c r="D65" s="14"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="28"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="14"/>
+      <c r="D66" s="28"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="14"/>
+      <c r="D67" s="28"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="14"/>
+      <c r="D68" s="28"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="14"/>
+      <c r="D69" s="28"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="14"/>
+      <c r="D70" s="28"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="14"/>
+      <c r="D71" s="28"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="14"/>
+      <c r="D72" s="28"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="14"/>
+      <c r="D73" s="28"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="14"/>
+      <c r="D74" s="28"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="14"/>
+      <c r="D75" s="28"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="14"/>
+      <c r="D76" s="28"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="14"/>
+      <c r="D77" s="28"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="14"/>
+      <c r="D78" s="28"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="14"/>
+      <c r="D79" s="28"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="14"/>
+      <c r="D80" s="28"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="14"/>
+      <c r="D81" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E47:E50"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="E15:E18"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="E31:E34"/>
+    <mergeCell ref="E35:E38"/>
+    <mergeCell ref="E39:E42"/>
+    <mergeCell ref="E43:E46"/>
     <mergeCell ref="F47:F50"/>
     <mergeCell ref="F3:F6"/>
     <mergeCell ref="F7:F10"/>
@@ -2695,18 +2723,6 @@
     <mergeCell ref="F35:F38"/>
     <mergeCell ref="F39:F42"/>
     <mergeCell ref="F43:F46"/>
-    <mergeCell ref="E47:E50"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="E15:E18"/>
-    <mergeCell ref="E19:E22"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E30"/>
-    <mergeCell ref="E31:E34"/>
-    <mergeCell ref="E35:E38"/>
-    <mergeCell ref="E39:E42"/>
-    <mergeCell ref="E43:E46"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>

--- a/Misc/2019_20-Even-18CS42-DAA-Lecture-Plan.xlsx
+++ b/Misc/2019_20-Even-18CS42-DAA-Lecture-Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ramrustagi/Projects/github/2019_20-Even-18CS42-DAA/Misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762EA614-3633-7C42-B865-B95740BA2674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B455CB-F816-684E-83BF-936E175B3800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="460" windowWidth="20700" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6260" yWindow="460" windowWidth="13300" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COs" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="112">
   <si>
     <t>Topic</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>T13</t>
+  </si>
+  <si>
+    <t>18CS42 - Design and Analysis of Algorithms</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -917,18 +920,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -946,6 +937,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="295">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1263,13 +1267,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1324,13 +1328,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1681,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1695,44 +1699,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="10">
-        <v>2</v>
+      <c r="B1" s="33" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="10">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="10">
         <v>2</v>
@@ -1740,10 +1727,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C5" s="10">
         <v>3</v>
@@ -1751,10 +1738,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" s="10">
         <v>2</v>
@@ -1762,19 +1749,42 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C7" s="10">
         <v>3</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="1"/>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
@@ -1788,24 +1798,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:H81"/>
+  <dimension ref="A2:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="6.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11" style="32" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="2.83203125" style="28" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="8" customWidth="1"/>
     <col min="7" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
@@ -1815,13 +1825,13 @@
       <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -1831,19 +1841,15 @@
       <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="24" t="s">
+      <c r="D3" s="23"/>
+      <c r="E3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2">
-        <f>13/38</f>
-        <v>0.34210526315789475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -1853,11 +1859,11 @@
       <c r="C4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="23"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="24"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="30"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>3</v>
       </c>
@@ -1867,16 +1873,16 @@
       <c r="C5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D6" s="28"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+      <c r="D5" s="24"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="30"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="24"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="30"/>
+    </row>
+    <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>4</v>
       </c>
@@ -1886,15 +1892,15 @@
       <c r="C7" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="28"/>
-      <c r="E7" s="24" t="s">
+      <c r="D7" s="24"/>
+      <c r="E7" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>5</v>
       </c>
@@ -1904,11 +1910,11 @@
       <c r="C8" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+      <c r="D8" s="24"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="29"/>
+    </row>
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>6</v>
       </c>
@@ -1918,19 +1924,19 @@
       <c r="C9" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="23"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="24"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="30"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+      <c r="D10" s="25"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="30"/>
+    </row>
+    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>7</v>
       </c>
@@ -1940,15 +1946,15 @@
       <c r="C11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="24" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="22" t="s">
+      <c r="F11" s="29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>8</v>
       </c>
@@ -1958,11 +1964,11 @@
       <c r="C12" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" ht="35" x14ac:dyDescent="0.25">
+      <c r="D12" s="24"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="29"/>
+    </row>
+    <row r="13" spans="1:6" ht="35" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>9</v>
       </c>
@@ -1972,19 +1978,19 @@
       <c r="C13" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="26"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="29"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="25"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>10</v>
       </c>
@@ -1994,15 +2000,15 @@
       <c r="C15" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="24" t="s">
+      <c r="D15" s="26"/>
+      <c r="E15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>11</v>
       </c>
@@ -2012,9 +2018,9 @@
       <c r="C16" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="28"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="22"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="29"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
@@ -2026,20 +2032,17 @@
       <c r="C17" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="28">
-        <f>12/38</f>
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="29"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="23"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
@@ -2051,14 +2054,11 @@
       <c r="C19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="30">
-        <f>13/38</f>
-        <v>0.34210526315789475</v>
-      </c>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="26"/>
+      <c r="E19" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2072,9 +2072,9 @@
       <c r="C20" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="22"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="29"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
@@ -2086,20 +2086,17 @@
       <c r="C21" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="D21" s="30">
-        <f>15/38</f>
-        <v>0.39473684210526316</v>
-      </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="22"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="29"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="23"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="30"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
@@ -2111,11 +2108,11 @@
       <c r="C23" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="24" t="s">
+      <c r="D23" s="26"/>
+      <c r="E23" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="29" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2129,9 +2126,9 @@
       <c r="C24" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="23"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="30"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
@@ -2143,17 +2140,17 @@
       <c r="C25" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="30"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="23"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="30"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="30"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
@@ -2165,11 +2162,11 @@
       <c r="C27" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="24" t="s">
+      <c r="D27" s="26"/>
+      <c r="E27" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="29" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2183,9 +2180,9 @@
       <c r="C28" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="23"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="30"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
@@ -2197,17 +2194,17 @@
       <c r="C29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="23"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="23"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
@@ -2219,11 +2216,11 @@
       <c r="C31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="24" t="s">
+      <c r="D31" s="26"/>
+      <c r="E31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="22" t="s">
+      <c r="F31" s="29" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2237,9 +2234,9 @@
       <c r="C32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="23"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="1:6" ht="35" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
@@ -2251,17 +2248,17 @@
       <c r="C33" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="23"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="23"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="30"/>
     </row>
     <row r="35" spans="1:6" ht="35" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
@@ -2273,11 +2270,11 @@
       <c r="C35" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="D35" s="30"/>
-      <c r="E35" s="24" t="s">
+      <c r="D35" s="26"/>
+      <c r="E35" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="22" t="s">
+      <c r="F35" s="29" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2291,9 +2288,9 @@
       <c r="C36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="23"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="30"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
@@ -2305,17 +2302,17 @@
       <c r="C37" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="23"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="30"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="23"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="30"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
@@ -2327,11 +2324,11 @@
       <c r="C39" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="24" t="s">
+      <c r="D39" s="26"/>
+      <c r="E39" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="22" t="s">
+      <c r="F39" s="29" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2345,9 +2342,9 @@
       <c r="C40" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="23"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="30"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
@@ -2359,17 +2356,17 @@
       <c r="C41" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="23"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="30"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="23"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="30"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
@@ -2381,11 +2378,11 @@
       <c r="C43" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="30"/>
-      <c r="E43" s="24" t="s">
+      <c r="D43" s="26"/>
+      <c r="E43" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F43" s="22" t="s">
+      <c r="F43" s="29" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2399,9 +2396,9 @@
       <c r="C44" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D44" s="30"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="23"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="30"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="15">
@@ -2413,17 +2410,17 @@
       <c r="C45" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="23"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="30"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="23"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="30"/>
     </row>
     <row r="47" spans="1:6" ht="35" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
@@ -2435,11 +2432,11 @@
       <c r="C47" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="30"/>
-      <c r="E47" s="24" t="s">
+      <c r="D47" s="26"/>
+      <c r="E47" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="22" t="s">
+      <c r="F47" s="29" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2453,9 +2450,9 @@
       <c r="C48" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D48" s="30"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="23"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="30"/>
     </row>
     <row r="49" spans="1:6" ht="35" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
@@ -2467,9 +2464,9 @@
       <c r="C49" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="30"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="23"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="52" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
@@ -2481,21 +2478,21 @@
       <c r="C50" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="30"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="23"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="30"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="29"/>
+      <c r="D51" s="25"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="28"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
@@ -2507,7 +2504,7 @@
       <c r="C53" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D53" s="28"/>
+      <c r="D53" s="24"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
@@ -2519,7 +2516,7 @@
       <c r="C54" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D54" s="28"/>
+      <c r="D54" s="24"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
@@ -2531,7 +2528,7 @@
       <c r="C55" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="28"/>
+      <c r="D55" s="24"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
@@ -2543,7 +2540,7 @@
       <c r="C56" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D56" s="28"/>
+      <c r="D56" s="24"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
@@ -2555,7 +2552,7 @@
       <c r="C57" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="28"/>
+      <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
@@ -2567,7 +2564,7 @@
       <c r="C58" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="28"/>
+      <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
@@ -2579,7 +2576,7 @@
       <c r="C59" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D59" s="28"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
@@ -2591,7 +2588,7 @@
       <c r="C60" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D60" s="28"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
@@ -2603,7 +2600,7 @@
       <c r="C61" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D61" s="28"/>
+      <c r="D61" s="24"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
@@ -2615,7 +2612,7 @@
       <c r="C62" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="28"/>
+      <c r="D62" s="24"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
@@ -2627,7 +2624,7 @@
       <c r="C63" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D63" s="28"/>
+      <c r="D63" s="24"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
@@ -2639,7 +2636,7 @@
       <c r="C64" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D64" s="28"/>
+      <c r="D64" s="24"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
@@ -2647,55 +2644,55 @@
       </c>
       <c r="B65" s="15"/>
       <c r="C65" s="17"/>
-      <c r="D65" s="28"/>
+      <c r="D65" s="24"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D66" s="28"/>
+      <c r="D66" s="24"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D67" s="28"/>
+      <c r="D67" s="24"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D68" s="28"/>
+      <c r="D68" s="24"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D69" s="28"/>
+      <c r="D69" s="24"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D70" s="28"/>
+      <c r="D70" s="24"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D71" s="28"/>
+      <c r="D71" s="24"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D72" s="28"/>
+      <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D73" s="28"/>
+      <c r="D73" s="24"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D74" s="28"/>
+      <c r="D74" s="24"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D75" s="28"/>
+      <c r="D75" s="24"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D76" s="28"/>
+      <c r="D76" s="24"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D77" s="28"/>
+      <c r="D77" s="24"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D78" s="28"/>
+      <c r="D78" s="24"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D79" s="28"/>
+      <c r="D79" s="24"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D80" s="28"/>
+      <c r="D80" s="24"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D81" s="28"/>
+      <c r="D81" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="24">
